--- a/テスト項目/サーバ.xlsx
+++ b/テスト項目/サーバ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -187,6 +187,31 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エッジ側に画像受信から番号取得までが成否を返す</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイヒ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -642,6 +670,18 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト項目/サーバ.xlsx
+++ b/テスト項目/サーバ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -212,6 +212,33 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段原</t>
+    <rPh sb="0" eb="2">
+      <t>ダンバラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -274,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +312,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,12 +600,13 @@
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="64.25" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -606,9 +637,15 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -618,9 +655,15 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -630,9 +673,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -642,9 +691,15 @@
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -654,9 +709,15 @@
         <v>11</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -666,9 +727,15 @@
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
@@ -678,9 +745,15 @@
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43823</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/テスト項目/サーバ.xlsx
+++ b/テスト項目/サーバ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\YoloBarcodReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816CAD1-F904-4521-BBD8-21D31953266A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,44 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ラズパイからTCPで送られていた画像を正常に受信</t>
-    <rPh sb="10" eb="11">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジュシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラズパイからTCPで送られていた画像とフラグ(追加or削除)を正常に受信</t>
-    <rPh sb="10" eb="11">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジュシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バーコード番号をカートDBに追加</t>
     <rPh sb="5" eb="7">
       <t>バンゴウ</t>
@@ -128,53 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ受信プログラムで受け取った画像データをYoloに渡し結果を取得</t>
-    <rPh sb="3" eb="5">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Yoloから受け取った座標値をもとにバーコードのみを切り取る</t>
-    <rPh sb="6" eb="7">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ザヒョウチ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pyzbarにバーコード画像を渡して番号を取得</t>
     <rPh sb="12" eb="14">
       <t>ガゾウ</t>
@@ -191,31 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エッジ側に画像受信から番号取得までが成否を返す</t>
-    <rPh sb="3" eb="4">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セイヒ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,6 +130,119 @@
     <t>段原</t>
     <rPh sb="0" eb="2">
       <t>ダンバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RaspberryPiからTCP通信で送られてきた複数の画像を正常に受信</t>
+    <rPh sb="16" eb="18">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RaspberryPiからTCPで送られてきたフラグ(追加or削除)を正常に受信</t>
+    <rPh sb="17" eb="18">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ受信後、受け取った画像データをYoloに渡し結果を取得</t>
+    <rPh sb="3" eb="5">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yoloから受け取った座標値をもとにバーコード領域のみを切り取る</t>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ザヒョウチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RaspberryPiに解析成功の成否をTCP通信で返す</t>
+    <rPh sb="12" eb="14">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイヒ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -246,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -634,17 +638,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4">
         <v>43823</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -652,17 +656,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4">
         <v>43823</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -670,17 +674,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4">
         <v>43823</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -688,17 +692,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
         <v>43823</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -706,17 +710,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4">
         <v>43823</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -724,17 +728,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
         <v>43823</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -742,17 +746,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4">
         <v>43823</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/テスト項目/サーバ.xlsx
+++ b/テスト項目/サーバ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\YoloBarcodReader\テスト項目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\YoloBarcodeReader\テスト項目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816CAD1-F904-4521-BBD8-21D31953266A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -41,16 +40,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>操作手順</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認結果</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -123,10 +112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>段原</t>
     <rPh sb="0" eb="2">
       <t>ダンバラ</t>
@@ -244,13 +229,21 @@
     <rPh sb="26" eb="27">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,20 +593,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="64.25" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,134 +622,124 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
         <v>43823</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
         <v>43823</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
         <v>43823</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
         <v>43823</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43823</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
-        <v>43823</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4">
         <v>43823</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="4">
         <v>43823</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
